--- a/PulseTrackerSol_daily_wallets.xlsx
+++ b/PulseTrackerSol_daily_wallets.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="High Performance Wallet Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pulsetrackersol.com" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -536,40 +536,40 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>71.88</v>
+        <v>75.47</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>160.03</v>
+        <v>184.36</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>6824.31</v>
+        <v>21887.7</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4264.43</v>
+        <v>11872.33</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>11088.74</v>
+        <v>33760.03</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>170.58</v>
+        <v>439.72</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>52.91</v>
+        <v>55.29</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>21.4</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="3">
@@ -579,40 +579,40 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>74.03</v>
+        <v>76.16</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>188.9</v>
+        <v>189.1</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>7169.62</v>
+        <v>37791.56</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>3795.43</v>
+        <v>19984.92</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>10965.05</v>
+        <v>57776.48</v>
       </c>
       <c r="G3" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>15</v>
-      </c>
       <c r="J3" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>199.76</v>
+        <v>571</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>46.65</v>
+        <v>32.58</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>29.8</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="4">
@@ -622,40 +622,40 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>64.58</v>
+        <v>53.97</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>134.6</v>
+        <v>85.59</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>21289.1</v>
+        <v>8997.889999999999</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>15815.99</v>
+        <v>10512.25</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>37105.09</v>
+        <v>19510.14</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>385.76</v>
+        <v>269.54</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>126.55</v>
+        <v>65.67</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>22.85</v>
+        <v>28.32</v>
       </c>
     </row>
     <row r="5">
@@ -665,40 +665,40 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>55.15</v>
+        <v>51.15</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>78.16</v>
+        <v>58.93</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>14770.19</v>
+        <v>327.94</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>18897.27</v>
+        <v>556.47</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>33667.46</v>
+        <v>884.41</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>286.32</v>
+        <v>8.06</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>102.58</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>26.33</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="6">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>71.59999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>164.15</v>
+        <v>147.28</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>40519.1</v>
+        <v>2922.7</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>24684.08</v>
+        <v>1984.42</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>65203.18</v>
+        <v>4907.12</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>457.11</v>
+        <v>48.4</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>45.23</v>
+        <v>59</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>42.76</v>
+        <v>31.93</v>
       </c>
     </row>
     <row r="7">
@@ -751,40 +751,40 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>69.42</v>
+        <v>57.4</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>149.47</v>
+        <v>103.23</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>12145.57</v>
+        <v>9010.700000000001</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>8126.01</v>
+        <v>8728.809999999999</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>20271.58</v>
+        <v>17739.51</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>2</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>119.5</v>
+        <v>143.1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>94.70999999999999</v>
+        <v>93.22</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>34.6</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="8">
@@ -794,40 +794,40 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>61.88</v>
+        <v>55.21</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>127.86</v>
+        <v>78.58</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>22898.11</v>
+        <v>7277.43</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>17908.79</v>
+        <v>9260.719999999999</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>40806.9</v>
+        <v>16538.15</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>351.15</v>
+        <v>159.67</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>65.59</v>
+        <v>60.71</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>29.34</v>
+        <v>43.43</v>
       </c>
     </row>
     <row r="9">
@@ -837,40 +837,40 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>52.16</v>
+        <v>45.5</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>65.59</v>
+        <v>27.89</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>10553.19</v>
+        <v>6527.7</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>16090.62</v>
+        <v>23407.55</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>26643.81</v>
+        <v>29935.25</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>574.67</v>
+        <v>936.3</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>39.45</v>
+        <v>13.04</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>35.98</v>
+        <v>33.67</v>
       </c>
     </row>
     <row r="10">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>71.03</v>
+        <v>79.45</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>171.39</v>
+        <v>200.71</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3331.15</v>
+        <v>7975.05</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1943.64</v>
+        <v>3973.37</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5274.79</v>
+        <v>11948.42</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>49.84</v>
+        <v>63.07</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>79.56</v>
+        <v>109.63</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>28.78</v>
+        <v>31.17</v>
       </c>
     </row>
     <row r="11">
@@ -923,40 +923,40 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>59.17</v>
+        <v>48.76</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>103.32</v>
+        <v>47.83</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>19021.86</v>
+        <v>10250.56</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>18409.89</v>
+        <v>21429.06</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>37431.75</v>
+        <v>31679.62</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>354.04</v>
+        <v>857.16</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>69.22</v>
+        <v>89.67</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>37.11</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="12">
@@ -966,40 +966,40 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>60.39</v>
+        <v>60.54</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>102.89</v>
+        <v>117.18</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>26287.1</v>
+        <v>17753.97</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>25548.58</v>
+        <v>15150.82</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>51835.68</v>
+        <v>32904.79</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>521.4</v>
+        <v>388.48</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>75.77</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>16.14</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="13">
@@ -1009,40 +1009,40 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>70.31</v>
+        <v>54.69</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>163.15</v>
+        <v>74.31</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>13718.16</v>
+        <v>17108.8</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>8408.24</v>
+        <v>23023.21</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>22126.4</v>
+        <v>40132.01</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>27</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>311.42</v>
+        <v>852.71</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>118.45</v>
+        <v>43.11</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>15.4</v>
+        <v>37.62</v>
       </c>
     </row>
     <row r="14">
@@ -1052,40 +1052,40 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>48.93</v>
+        <v>68.86</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>50.56</v>
+        <v>157.8</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>4169.21</v>
+        <v>10474.91</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>8245.27</v>
+        <v>6638.18</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>12414.48</v>
+        <v>17113.09</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>126.85</v>
+        <v>195.24</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>72.75</v>
+        <v>39.12</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>27.75</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="15">
@@ -1095,40 +1095,40 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>46.8</v>
+        <v>51.68</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>35.36</v>
+        <v>67.06</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>7684.7</v>
+        <v>12871.82</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>21732.44</v>
+        <v>19194.66</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>29417.14</v>
+        <v>32066.48</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>587.36</v>
+        <v>336.75</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>93.68000000000001</v>
+        <v>26.08</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>38.83</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="16">
@@ -1138,40 +1138,40 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>71.14</v>
+        <v>42.5</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>167.42</v>
+        <v>18.17</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>22117.09</v>
+        <v>3812.94</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>13210.76</v>
+        <v>20979.14</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>35327.85</v>
+        <v>24792.08</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>191.46</v>
+        <v>487.89</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>29.05</v>
+        <v>67.83</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>44.16</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="17">
@@ -1181,40 +1181,40 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>79.92</v>
+        <v>51.32</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>202.91</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>2783.45</v>
+        <v>11609.9</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>1371.79</v>
+        <v>17375.7</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>4155.24</v>
+        <v>28985.6</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>28</v>
+        <v>310.28</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>102.67</v>
+        <v>75.29000000000001</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>27.65</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="18">
@@ -1224,40 +1224,40 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43.66</v>
+        <v>79.31</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>31.3</v>
+        <v>205.23</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>3599.84</v>
+        <v>38579.87</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>11501.37</v>
+        <v>18798.52</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>15101.21</v>
+        <v>57378.39</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>575.0700000000001</v>
+        <v>289.21</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>24.81</v>
+        <v>74.92</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>32.11</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="19">
@@ -1267,40 +1267,40 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>79.04000000000001</v>
+        <v>77.66</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>202.02</v>
+        <v>196.41</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>23135.45</v>
+        <v>54369.98</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>11452.33</v>
+        <v>27681.52</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>34587.78</v>
+        <v>82051.5</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>187.74</v>
+        <v>1628.32</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>149.57</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>32.06</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="20">
@@ -1310,40 +1310,40 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>48.59</v>
+        <v>49.13</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>51.09</v>
+        <v>61.25</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6850.39</v>
+        <v>6707.52</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>13408.76</v>
+        <v>10950.61</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>20259.15</v>
+        <v>17658.13</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>44</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>273.65</v>
+        <v>206.62</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>30.41</v>
+        <v>38.54</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>32.21</v>
+        <v>43.34</v>
       </c>
     </row>
     <row r="21">
@@ -1353,40 +1353,40 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>67.83</v>
+        <v>49.19</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>153.88</v>
+        <v>61.39</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>13677.37</v>
+        <v>17615.14</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>8888.459999999999</v>
+        <v>28695.53</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>22565.83</v>
+        <v>46310.67</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>167.71</v>
+        <v>925.66</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>34.68</v>
+        <v>110.4</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>38.36</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="22">
@@ -1396,40 +1396,40 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>65.84999999999999</v>
+        <v>56.27</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>146.01</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>14129.03</v>
+        <v>9965.559999999999</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>9676.6</v>
+        <v>11873.9</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>23805.63</v>
+        <v>21839.46</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>186.09</v>
+        <v>339.25</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>43.18</v>
+        <v>18.75</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>12.57</v>
+        <v>46.56</v>
       </c>
     </row>
     <row r="23">
@@ -1439,40 +1439,40 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>60.22</v>
+        <v>59.87</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>111.09</v>
+        <v>103.8</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>2054.87</v>
+        <v>26396.54</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>1849.7</v>
+        <v>25429.38</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>3904.57</v>
+        <v>51825.92</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>51.38</v>
+        <v>978.05</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>31.91</v>
+        <v>125.52</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>36.79</v>
+        <v>38.87</v>
       </c>
     </row>
     <row r="24">
@@ -1482,40 +1482,40 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>71.17</v>
+        <v>52.28</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>165.04</v>
+        <v>64.91</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>31482.61</v>
+        <v>11400.4</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>19075.37</v>
+        <v>17562.32</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>50557.98</v>
+        <v>28962.72</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>733.67</v>
+        <v>548.8200000000001</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>112.05</v>
+        <v>115.03</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>28.71</v>
+        <v>25.96</v>
       </c>
     </row>
     <row r="25">
@@ -1525,40 +1525,40 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>49.07</v>
+        <v>42.91</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>58.84</v>
+        <v>27.26</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>2006.05</v>
+        <v>2016.07</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>3409.31</v>
+        <v>7394.75</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>5415.36</v>
+        <v>9410.82</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>75.76000000000001</v>
+        <v>211.28</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>40.11</v>
+        <v>40.84</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>24.63</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="26">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>71.66</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>166.61</v>
+        <v>181.58</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>17763.93</v>
+        <v>14297.48</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>10662.03</v>
+        <v>7873.94</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>28425.96</v>
+        <v>22171.42</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>174.79</v>
+        <v>151.42</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>60.01</v>
+        <v>61.55</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>32.78</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="27">
@@ -1611,40 +1611,40 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>57.67</v>
+        <v>61.98</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>106.03</v>
+        <v>118.21</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>22113.93</v>
+        <v>1208.68</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>20856.69</v>
+        <v>1022.49</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>42970.62</v>
+        <v>2231.17</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>316.01</v>
+        <v>14.82</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>114.46</v>
+        <v>38.47</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>29.45</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="28">
@@ -1654,40 +1654,40 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>51.83</v>
+        <v>58.32</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>67.27</v>
+        <v>101.8</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>4949.63</v>
+        <v>28812.72</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>7357.56</v>
+        <v>28302.36</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>12307.19</v>
+        <v>57115.08</v>
       </c>
       <c r="G28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="H28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>36</v>
-      </c>
       <c r="I28" s="2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>183.94</v>
+        <v>602.1799999999999</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>121.56</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>23.25</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="29">
@@ -1697,40 +1697,40 @@
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>77.09</v>
+        <v>66.39</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>204.81</v>
+        <v>133.16</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>34304.86</v>
+        <v>789.91</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>16749.26</v>
+        <v>593.1900000000001</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>51054.12</v>
+        <v>1383.1</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J29" s="3" t="n">
         <v>5</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>837.46</v>
+        <v>12.11</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>99</v>
+        <v>52.78</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>33.02</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="30">
@@ -1740,40 +1740,40 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>46.41</v>
+        <v>69.44</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>42.68</v>
+        <v>158.28</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>9642.629999999999</v>
+        <v>39721.32</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>22594.29</v>
+        <v>25094.93</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>32236.92</v>
+        <v>64816.25</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>364.42</v>
+        <v>896.25</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>83.04000000000001</v>
+        <v>121.36</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>13.85</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="31">
@@ -1783,40 +1783,40 @@
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>58.43</v>
+        <v>79.7</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>111.25</v>
+        <v>209.37</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>28361.49</v>
+        <v>5346.52</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>25492.63</v>
+        <v>2553.61</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>53854.12</v>
+        <v>7900.13</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>980.49</v>
+        <v>49.11</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>104.23</v>
+        <v>112.13</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>37.96</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/PulseTrackerSol_daily_wallets.xlsx
+++ b/PulseTrackerSol_daily_wallets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\Dropbox\PulseTracker\winning wallets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F73886-D350-4C71-9590-F56936A19BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F658F83-0C00-4A1A-8A1A-FB24EB5251D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1305" windowWidth="23940" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1050" windowWidth="26400" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pulsetrackersol.com" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
   <si>
     <t>Wallet</t>
   </si>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,61 +535,61 @@
         <v>20</v>
       </c>
       <c r="B2" s="2">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
-        <v>316.72000000000003</v>
+        <v>562.37</v>
       </c>
       <c r="D2" s="2">
-        <v>10938.25</v>
+        <v>4641.24</v>
       </c>
       <c r="E2" s="2">
-        <v>3453.61</v>
+        <v>825.3</v>
       </c>
       <c r="F2" s="2">
-        <v>14391.86</v>
+        <v>5466.53</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>376.63</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>68.77</v>
+      </c>
+      <c r="O2" s="2">
+        <v>354.57</v>
+      </c>
+      <c r="P2" s="2">
+        <v>24.34</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>658.43</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S2" s="2">
+        <v>132.71</v>
+      </c>
+      <c r="T2" s="2">
         <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>690.72</v>
-      </c>
-      <c r="O2" s="2">
-        <v>600.20000000000005</v>
-      </c>
-      <c r="P2" s="2">
-        <v>146.6</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2294.98</v>
-      </c>
-      <c r="R2" s="2">
-        <v>12.35</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1090.3599999999999</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -600,25 +600,25 @@
         <v>60</v>
       </c>
       <c r="C3" s="3">
-        <v>76.819999999999993</v>
+        <v>163.49</v>
       </c>
       <c r="D3" s="3">
-        <v>37912.01</v>
+        <v>3364.57</v>
       </c>
       <c r="E3" s="3">
-        <v>49354.49</v>
+        <v>2057.91</v>
       </c>
       <c r="F3" s="3">
-        <v>87266.49</v>
+        <v>5422.48</v>
       </c>
       <c r="G3" s="3">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I3" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -627,28 +627,28 @@
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" s="3">
-        <v>1265.5</v>
+        <v>293.99</v>
       </c>
       <c r="O3" s="3">
-        <v>16.37</v>
+        <v>406.97</v>
       </c>
       <c r="P3" s="3">
-        <v>59.11</v>
+        <v>42.92</v>
       </c>
       <c r="Q3" s="3">
-        <v>2095.4699999999998</v>
+        <v>2161.1999999999998</v>
       </c>
       <c r="R3" s="3">
-        <v>57.65</v>
+        <v>159.72999999999999</v>
       </c>
       <c r="S3" s="3">
-        <v>530.59</v>
+        <v>1008.78</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>69.23</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2">
-        <v>72.62</v>
+        <v>34.369999999999997</v>
       </c>
       <c r="D4" s="2">
-        <v>7150.36</v>
+        <v>183.07</v>
       </c>
       <c r="E4" s="2">
-        <v>9845.69</v>
+        <v>532.64</v>
       </c>
       <c r="F4" s="2">
-        <v>16996.05</v>
+        <v>715.71</v>
       </c>
       <c r="G4" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -695,22 +695,22 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>656.38</v>
+        <v>25.36</v>
       </c>
       <c r="O4" s="2">
-        <v>133.38999999999999</v>
+        <v>37.06</v>
       </c>
       <c r="P4" s="2">
-        <v>34.700000000000003</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="Q4" s="2">
-        <v>9.1</v>
+        <v>26.08</v>
       </c>
       <c r="R4" s="2">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="S4" s="2">
-        <v>3.47</v>
+        <v>12.35</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
@@ -721,28 +721,28 @@
         <v>20</v>
       </c>
       <c r="B5" s="3">
-        <v>71.430000000000007</v>
+        <v>85.71</v>
       </c>
       <c r="C5" s="3">
-        <v>30.03</v>
+        <v>19.97</v>
       </c>
       <c r="D5" s="3">
-        <v>16045.86</v>
+        <v>65.62</v>
       </c>
       <c r="E5" s="3">
-        <v>53437.51</v>
+        <v>328.65</v>
       </c>
       <c r="F5" s="3">
-        <v>69483.37</v>
+        <v>394.28</v>
       </c>
       <c r="G5" s="3">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="I5" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
@@ -751,31 +751,31 @@
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>876.02</v>
+        <v>41.08</v>
       </c>
       <c r="O5" s="3">
-        <v>57.21</v>
+        <v>25.92</v>
       </c>
       <c r="P5" s="3">
-        <v>15.95</v>
+        <v>18.16</v>
       </c>
       <c r="Q5" s="3">
-        <v>1267.03</v>
+        <v>2205.8000000000002</v>
       </c>
       <c r="R5" s="3">
-        <v>26.57</v>
+        <v>0.93</v>
       </c>
       <c r="S5" s="3">
-        <v>443.12</v>
+        <v>317.25</v>
       </c>
       <c r="T5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -783,25 +783,25 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="C6" s="2">
-        <v>69.3</v>
+        <v>228.37</v>
       </c>
       <c r="D6" s="2">
-        <v>1550.9</v>
+        <v>1727.15</v>
       </c>
       <c r="E6" s="2">
-        <v>2238.02</v>
+        <v>756.3</v>
       </c>
       <c r="F6" s="2">
-        <v>3788.92</v>
+        <v>2483.4499999999998</v>
       </c>
       <c r="G6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2">
         <v>6</v>
@@ -813,31 +813,31 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>126.05</v>
+      </c>
+      <c r="O6" s="2">
+        <v>191.71</v>
+      </c>
+      <c r="P6" s="2">
+        <v>48.28</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3904.58</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="S6" s="2">
+        <v>977.4</v>
+      </c>
+      <c r="T6" s="2">
         <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>447.6</v>
-      </c>
-      <c r="O6" s="2">
-        <v>30.87</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>760.5</v>
-      </c>
-      <c r="R6" s="2">
-        <v>525.91999999999996</v>
-      </c>
-      <c r="S6" s="2">
-        <v>643.21</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -845,58 +845,58 @@
         <v>20</v>
       </c>
       <c r="B7" s="3">
-        <v>100</v>
+        <v>66.67</v>
       </c>
       <c r="C7" s="3">
-        <v>42.34</v>
+        <v>65.83</v>
       </c>
       <c r="D7" s="3">
-        <v>614.98</v>
+        <v>1040.82</v>
       </c>
       <c r="E7" s="3">
-        <v>1452.33</v>
+        <v>1581</v>
       </c>
       <c r="F7" s="3">
-        <v>2067.3200000000002</v>
+        <v>2621.83</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I7" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>44.46</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>363.08</v>
+        <v>131.75</v>
       </c>
       <c r="O7" s="3">
-        <v>224.73</v>
+        <v>111.81</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="Q7" s="3">
-        <v>1009.72</v>
+        <v>204.6</v>
       </c>
       <c r="R7" s="3">
-        <v>760.08</v>
+        <v>3.97</v>
       </c>
       <c r="S7" s="3">
-        <v>884.9</v>
+        <v>45.08</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
@@ -907,28 +907,28 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>62.5</v>
+        <v>83.33</v>
       </c>
       <c r="C8" s="2">
-        <v>37.770000000000003</v>
+        <v>36.94</v>
       </c>
       <c r="D8" s="2">
-        <v>4576.3599999999997</v>
+        <v>1778.66</v>
       </c>
       <c r="E8" s="2">
-        <v>12116.33</v>
+        <v>4815.2299999999996</v>
       </c>
       <c r="F8" s="2">
-        <v>16692.7</v>
+        <v>6593.89</v>
       </c>
       <c r="G8" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2">
         <v>16</v>
       </c>
       <c r="I8" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>417.8</v>
+        <v>343.95</v>
       </c>
       <c r="O8" s="2">
-        <v>45.15</v>
+        <v>151.19</v>
       </c>
       <c r="P8" s="2">
-        <v>45.32</v>
+        <v>45.9</v>
       </c>
       <c r="Q8" s="2">
-        <v>108.25</v>
+        <v>237.33</v>
       </c>
       <c r="R8" s="2">
-        <v>2.2000000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S8" s="2">
-        <v>25.7</v>
+        <v>49</v>
       </c>
       <c r="T8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -969,31 +969,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>77.78</v>
+        <v>62.5</v>
       </c>
       <c r="C9" s="3">
-        <v>20.94</v>
+        <v>55.39</v>
       </c>
       <c r="D9" s="3">
-        <v>170.13</v>
+        <v>521.46</v>
       </c>
       <c r="E9" s="3">
-        <v>812.61</v>
+        <v>941.43</v>
       </c>
       <c r="F9" s="3">
-        <v>982.75</v>
+        <v>1462.89</v>
       </c>
       <c r="G9" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H9" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -1005,25 +1005,25 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>62.51</v>
+        <v>104.6</v>
       </c>
       <c r="O9" s="3">
-        <v>29.78</v>
+        <v>96.7</v>
       </c>
       <c r="P9" s="3">
-        <v>17.2</v>
+        <v>15.67</v>
       </c>
       <c r="Q9" s="3">
-        <v>9.23</v>
+        <v>255.17</v>
       </c>
       <c r="R9" s="3">
-        <v>2.4500000000000002</v>
+        <v>0.38</v>
       </c>
       <c r="S9" s="3">
-        <v>5.0599999999999996</v>
+        <v>54.65</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1031,28 +1031,28 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>66.67</v>
+        <v>61.36</v>
       </c>
       <c r="C10" s="2">
-        <v>93.14</v>
+        <v>12.98</v>
       </c>
       <c r="D10" s="2">
-        <v>3983.38</v>
+        <v>5251.48</v>
       </c>
       <c r="E10" s="2">
-        <v>4276.58</v>
+        <v>40462.400000000001</v>
       </c>
       <c r="F10" s="2">
-        <v>8259.9699999999993</v>
+        <v>45713.88</v>
       </c>
       <c r="G10" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H10" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>919.6</v>
+      </c>
+      <c r="O10" s="2">
+        <v>62.49</v>
+      </c>
+      <c r="P10" s="2">
+        <v>59.43</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>702.32</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="S10" s="2">
+        <v>53.51</v>
+      </c>
+      <c r="T10" s="2">
         <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>328.97</v>
-      </c>
-      <c r="O10" s="2">
-        <v>111.74</v>
-      </c>
-      <c r="P10" s="2">
-        <v>17.61</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>100.1</v>
-      </c>
-      <c r="R10" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="S10" s="2">
-        <v>27.87</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1093,58 +1093,58 @@
         <v>20</v>
       </c>
       <c r="B11" s="3">
-        <v>71.430000000000007</v>
+        <v>83.33</v>
       </c>
       <c r="C11" s="3">
-        <v>67.760000000000005</v>
+        <v>46.81</v>
       </c>
       <c r="D11" s="3">
-        <v>6253.28</v>
+        <v>693.43</v>
       </c>
       <c r="E11" s="3">
-        <v>9229.2199999999993</v>
+        <v>1481.26</v>
       </c>
       <c r="F11" s="3">
-        <v>15482.51</v>
+        <v>2174.69</v>
       </c>
       <c r="G11" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H11" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I11" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <v>1153.6500000000001</v>
+        <v>134.66</v>
       </c>
       <c r="O11" s="3">
-        <v>102.84</v>
+        <v>52.4</v>
       </c>
       <c r="P11" s="3">
-        <v>31.01</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" s="3">
-        <v>1625.23</v>
+        <v>89.23</v>
       </c>
       <c r="R11" s="3">
-        <v>72.53</v>
+        <v>1.75</v>
       </c>
       <c r="S11" s="3">
-        <v>491.43</v>
+        <v>19.84</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
@@ -1155,28 +1155,28 @@
         <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="C12" s="2">
-        <v>32.17</v>
+        <v>84.2</v>
       </c>
       <c r="D12" s="2">
-        <v>3084.69</v>
+        <v>282.23</v>
       </c>
       <c r="E12" s="2">
-        <v>9589.7999999999993</v>
+        <v>335.21</v>
       </c>
       <c r="F12" s="2">
-        <v>12674.49</v>
+        <v>617.44000000000005</v>
       </c>
       <c r="G12" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I12" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1185,31 +1185,31 @@
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>639.32000000000005</v>
+        <v>47.89</v>
       </c>
       <c r="O12" s="2">
-        <v>37.71</v>
+        <v>93.94</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>42.76</v>
       </c>
       <c r="Q12" s="2">
-        <v>102.17</v>
+        <v>96.4</v>
       </c>
       <c r="R12" s="2">
-        <v>10</v>
+        <v>0.92</v>
       </c>
       <c r="S12" s="2">
-        <v>56.08</v>
+        <v>21.39</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1217,61 +1217,61 @@
         <v>20</v>
       </c>
       <c r="B13" s="3">
-        <v>60</v>
+        <v>56.25</v>
       </c>
       <c r="C13" s="3">
-        <v>24.55</v>
+        <v>12.44</v>
       </c>
       <c r="D13" s="3">
-        <v>3159.03</v>
+        <v>836.13</v>
       </c>
       <c r="E13" s="3">
-        <v>12868.8</v>
+        <v>6722.83</v>
       </c>
       <c r="F13" s="3">
-        <v>16027.84</v>
+        <v>7558.95</v>
       </c>
       <c r="G13" s="3">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
       <c r="K13" s="3">
-        <v>2966.39</v>
+        <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>989.91</v>
+        <v>210.09</v>
       </c>
       <c r="O13" s="3">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="P13" s="3">
-        <v>169.35</v>
+        <v>51.47</v>
       </c>
       <c r="Q13" s="3">
-        <v>4445.58</v>
+        <v>666.25</v>
       </c>
       <c r="R13" s="3">
-        <v>80.900000000000006</v>
+        <v>0.75</v>
       </c>
       <c r="S13" s="3">
-        <v>1455.44</v>
+        <v>84.29</v>
       </c>
       <c r="T13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1279,61 +1279,61 @@
         <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>100</v>
+        <v>56.76</v>
       </c>
       <c r="C14" s="2">
-        <v>179.13</v>
+        <v>11.51</v>
       </c>
       <c r="D14" s="2">
-        <v>5018.09</v>
+        <v>1042.03</v>
       </c>
       <c r="E14" s="2">
-        <v>2801.33</v>
+        <v>9050.8799999999992</v>
       </c>
       <c r="F14" s="2">
-        <v>7819.42</v>
+        <v>10092.9</v>
       </c>
       <c r="G14" s="2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>138.16999999999999</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>244.62</v>
+      </c>
+      <c r="O14" s="2">
+        <v>59.69</v>
+      </c>
+      <c r="P14" s="2">
+        <v>50.33</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>499.02</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S14" s="2">
+        <v>69.03</v>
+      </c>
+      <c r="T14" s="2">
         <v>2</v>
-      </c>
-      <c r="N14" s="2">
-        <v>164.78</v>
-      </c>
-      <c r="O14" s="2">
-        <v>183.38</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1898.33</v>
-      </c>
-      <c r="R14" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="S14" s="2">
-        <v>911.31</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1341,31 +1341,31 @@
         <v>20</v>
       </c>
       <c r="B15" s="3">
-        <v>72.73</v>
+        <v>58.33</v>
       </c>
       <c r="C15" s="3">
-        <v>38.57</v>
+        <v>62.34</v>
       </c>
       <c r="D15" s="3">
-        <v>126.56</v>
+        <v>1629.09</v>
       </c>
       <c r="E15" s="3">
-        <v>328.1</v>
+        <v>2613.34</v>
       </c>
       <c r="F15" s="3">
-        <v>454.65</v>
+        <v>4242.43</v>
       </c>
       <c r="G15" s="3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H15" s="3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I15" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1377,22 +1377,22 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>25.24</v>
+        <v>104.53</v>
       </c>
       <c r="O15" s="3">
-        <v>63.69</v>
+        <v>116.24</v>
       </c>
       <c r="P15" s="3">
-        <v>38.159999999999997</v>
+        <v>27.34</v>
       </c>
       <c r="Q15" s="3">
-        <v>8144.93</v>
+        <v>578.41999999999996</v>
       </c>
       <c r="R15" s="3">
-        <v>1.5</v>
+        <v>4.32</v>
       </c>
       <c r="S15" s="3">
-        <v>754.93</v>
+        <v>137.9</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1403,65 +1403,2854 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
+        <v>54.17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>30.45</v>
+      </c>
+      <c r="D16" s="2">
+        <v>864.64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2839.22</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3703.86</v>
+      </c>
+      <c r="G16" s="2">
+        <v>35</v>
+      </c>
+      <c r="H16" s="2">
+        <v>43</v>
+      </c>
+      <c r="I16" s="2">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>81.12</v>
+      </c>
+      <c r="O16" s="2">
+        <v>48.79</v>
+      </c>
+      <c r="P16" s="2">
+        <v>30.28</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>991.83</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="S16" s="2">
+        <v>68.02</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>57.14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>36.69</v>
+      </c>
+      <c r="D17" s="3">
+        <v>326.52</v>
+      </c>
+      <c r="E17" s="3">
+        <v>889.89</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1216.4100000000001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3">
+        <v>55</v>
+      </c>
+      <c r="I17" s="3">
+        <v>21</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="O17" s="3">
+        <v>60.19</v>
+      </c>
+      <c r="P17" s="3">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>991.8</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="S17" s="3">
+        <v>72.28</v>
+      </c>
+      <c r="T17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11.44</v>
+      </c>
+      <c r="D18" s="2">
+        <v>151.68</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1325.41</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1477.09</v>
+      </c>
+      <c r="G18" s="2">
+        <v>43</v>
+      </c>
+      <c r="H18" s="2">
+        <v>25</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>30.82</v>
+      </c>
+      <c r="O18" s="2">
+        <v>42.56</v>
+      </c>
+      <c r="P18" s="2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>41.33</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="S18" s="2">
+        <v>18.52</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>76.47</v>
+      </c>
+      <c r="C19" s="3">
+        <v>15.68</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5034.87</v>
+      </c>
+      <c r="E19" s="3">
+        <v>32108.76</v>
+      </c>
+      <c r="F19" s="3">
+        <v>37143.629999999997</v>
+      </c>
+      <c r="G19" s="3">
+        <v>59</v>
+      </c>
+      <c r="H19" s="3">
+        <v>57</v>
+      </c>
+      <c r="I19" s="3">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>544.22</v>
+      </c>
+      <c r="O19" s="3">
+        <v>40.4</v>
+      </c>
+      <c r="P19" s="3">
+        <v>27.56</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>612.42999999999995</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="S19" s="3">
+        <v>109</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>52.63</v>
+      </c>
+      <c r="C20" s="2">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1913</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5313.37</v>
+      </c>
+      <c r="F20" s="2">
+        <v>7226.36</v>
+      </c>
+      <c r="G20" s="2">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>253.02</v>
+      </c>
+      <c r="O20" s="2">
+        <v>55.98</v>
+      </c>
+      <c r="P20" s="2">
+        <v>42.06</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>371.03</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="S20" s="2">
+        <v>47.68</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>53.23</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10.62</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1209.51</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11384.79</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12594.31</v>
+      </c>
+      <c r="G21" s="3">
+        <v>98</v>
+      </c>
+      <c r="H21" s="3">
+        <v>96</v>
+      </c>
+      <c r="I21" s="3">
+        <v>62</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>116.17</v>
+      </c>
+      <c r="O21" s="3">
+        <v>49.61</v>
+      </c>
+      <c r="P21" s="3">
+        <v>24.06</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>17.98</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="S21" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="T21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
+        <v>41.09</v>
+      </c>
+      <c r="D22" s="2">
+        <v>804.88</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1959.04</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2763.92</v>
+      </c>
+      <c r="G22" s="2">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>178.09</v>
+      </c>
+      <c r="O22" s="2">
+        <v>145.9</v>
+      </c>
+      <c r="P22" s="2">
+        <v>62.94</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>403.37</v>
+      </c>
+      <c r="R22" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="S22" s="2">
+        <v>138.24</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
         <v>66.67</v>
       </c>
-      <c r="C16" s="2">
-        <v>21.53</v>
-      </c>
-      <c r="D16" s="2">
-        <v>553.9</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2572.42</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3126.32</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="C23" s="3">
+        <v>29.65</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4472.66</v>
+      </c>
+      <c r="E23" s="3">
+        <v>15082.56</v>
+      </c>
+      <c r="F23" s="3">
+        <v>19555.23</v>
+      </c>
+      <c r="G23" s="3">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3">
+        <v>22</v>
+      </c>
+      <c r="I23" s="3">
+        <v>12</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>754.13</v>
+      </c>
+      <c r="O23" s="3">
+        <v>35.74</v>
+      </c>
+      <c r="P23" s="3">
+        <v>39.51</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>96.57</v>
+      </c>
+      <c r="R23" s="3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="S23" s="3">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>73.66</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1815.93</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2465.42</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4281.34</v>
+      </c>
+      <c r="G24" s="2">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2">
+        <v>13</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>154.09</v>
+      </c>
+      <c r="O24" s="2">
+        <v>59.64</v>
+      </c>
+      <c r="P24" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>311.32</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="S24" s="2">
+        <v>47.52</v>
+      </c>
+      <c r="T24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3">
+        <v>68.75</v>
+      </c>
+      <c r="C25" s="3">
+        <v>42.07</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2655.51</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6312.71</v>
+      </c>
+      <c r="F25" s="3">
+        <v>8968.2199999999993</v>
+      </c>
+      <c r="G25" s="3">
+        <v>18</v>
+      </c>
+      <c r="H25" s="3">
+        <v>18</v>
+      </c>
+      <c r="I25" s="3">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>350.71</v>
+      </c>
+      <c r="O25" s="3">
+        <v>62.97</v>
+      </c>
+      <c r="P25" s="3">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1052.6199999999999</v>
+      </c>
+      <c r="R25" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="S25" s="3">
+        <v>119.49</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="C26" s="2">
+        <v>52.95</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2077.71</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3924.16</v>
+      </c>
+      <c r="F26" s="2">
+        <v>6001.88</v>
+      </c>
+      <c r="G26" s="2">
+        <v>16</v>
+      </c>
+      <c r="H26" s="2">
+        <v>16</v>
+      </c>
+      <c r="I26" s="2">
+        <v>6</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>245.26</v>
+      </c>
+      <c r="O26" s="2">
+        <v>48.07</v>
+      </c>
+      <c r="P26" s="2">
+        <v>24.94</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>34.47</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="S26" s="2">
+        <v>12.22</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="C27" s="3">
+        <v>68.11</v>
+      </c>
+      <c r="D27" s="3">
+        <v>6041.28</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8869.34</v>
+      </c>
+      <c r="F27" s="3">
+        <v>14910.62</v>
+      </c>
+      <c r="G27" s="3">
+        <v>14</v>
+      </c>
+      <c r="H27" s="3">
+        <v>22</v>
+      </c>
+      <c r="I27" s="3">
+        <v>14</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>633.52</v>
+      </c>
+      <c r="O27" s="3">
+        <v>3159.11</v>
+      </c>
+      <c r="P27" s="3">
+        <v>20.83</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>16.43</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="S27" s="3">
+        <v>4.87</v>
+      </c>
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2">
+        <v>51.61</v>
+      </c>
+      <c r="C28" s="2">
+        <v>11.27</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9610.8700000000008</v>
+      </c>
+      <c r="E28" s="2">
+        <v>85266.47</v>
+      </c>
+      <c r="F28" s="2">
+        <v>94877.34</v>
+      </c>
+      <c r="G28" s="2">
+        <v>86</v>
+      </c>
+      <c r="H28" s="2">
+        <v>51</v>
+      </c>
+      <c r="I28" s="2">
+        <v>31</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>991.47</v>
+      </c>
+      <c r="O28" s="2">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="P28" s="2">
+        <v>30.57</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>440.03</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="S28" s="2">
+        <v>36.31</v>
+      </c>
+      <c r="T28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="C29" s="3">
+        <v>13.36</v>
+      </c>
+      <c r="D29" s="3">
+        <v>563.63</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4217.72</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4781.3599999999997</v>
+      </c>
+      <c r="G29" s="3">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3">
+        <v>19</v>
+      </c>
+      <c r="I29" s="3">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>28.51</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>140.59</v>
+      </c>
+      <c r="O29" s="3">
+        <v>22.28</v>
+      </c>
+      <c r="P29" s="3">
+        <v>124.14</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>4265.22</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="S29" s="3">
+        <v>550.66</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2">
+        <v>75</v>
+      </c>
+      <c r="C30" s="2">
+        <v>14.91</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1364.73</v>
+      </c>
+      <c r="E30" s="2">
+        <v>9153.16</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10517.89</v>
+      </c>
+      <c r="G30" s="2">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2">
+        <v>13</v>
+      </c>
+      <c r="I30" s="2">
+        <v>8</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>704.09</v>
+      </c>
+      <c r="O30" s="2">
+        <v>3796.65</v>
+      </c>
+      <c r="P30" s="2">
+        <v>49.46</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>914.73</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="S30" s="2">
+        <v>117.01</v>
+      </c>
+      <c r="T30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="C31" s="3">
+        <v>55.13</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1961.47</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3557.65</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5519.12</v>
+      </c>
+      <c r="G31" s="3">
+        <v>20</v>
+      </c>
+      <c r="H31" s="3">
+        <v>21</v>
+      </c>
+      <c r="I31" s="3">
+        <v>19</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>177.88</v>
+      </c>
+      <c r="O31" s="3">
+        <v>86.01</v>
+      </c>
+      <c r="P31" s="3">
+        <v>13.62</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S31" s="3">
+        <v>15</v>
+      </c>
+      <c r="T31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <v>57.14</v>
+      </c>
+      <c r="C32" s="2">
+        <v>68.97</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1206.0899999999999</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1748.69</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2954.78</v>
+      </c>
+      <c r="G32" s="2">
+        <v>18</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2">
+        <v>7</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>97.15</v>
+      </c>
+      <c r="O32" s="2">
+        <v>133.29</v>
+      </c>
+      <c r="P32" s="2">
+        <v>49.7</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1955.65</v>
+      </c>
+      <c r="R32" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="S32" s="2">
+        <v>501.69</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="3">
+        <v>57.14</v>
+      </c>
+      <c r="C33" s="3">
+        <v>19.02</v>
+      </c>
+      <c r="D33" s="3">
+        <v>137.35</v>
+      </c>
+      <c r="E33" s="3">
+        <v>722.13</v>
+      </c>
+      <c r="F33" s="3">
+        <v>859.48</v>
+      </c>
+      <c r="G33" s="3">
+        <v>11</v>
+      </c>
+      <c r="H33" s="3">
+        <v>13</v>
+      </c>
+      <c r="I33" s="3">
+        <v>7</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="O33" s="3">
+        <v>38.39</v>
+      </c>
+      <c r="P33" s="3">
+        <v>58.95</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>56.5</v>
+      </c>
+      <c r="R33" s="3">
+        <v>1.52</v>
+      </c>
+      <c r="S33" s="3">
+        <v>16.27</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="2">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2">
+        <v>47.45</v>
+      </c>
+      <c r="D34" s="2">
+        <v>864.6</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1822.2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2686.8</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="2">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>364.44</v>
+      </c>
+      <c r="O34" s="2">
+        <v>45.73</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>49.85</v>
+      </c>
+      <c r="R34" s="2">
+        <v>5.78</v>
+      </c>
+      <c r="S34" s="2">
+        <v>18.25</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3">
+        <v>53.85</v>
+      </c>
+      <c r="C35" s="3">
+        <v>15.49</v>
+      </c>
+      <c r="D35" s="3">
+        <v>371.45</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2397.27</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2768.72</v>
+      </c>
+      <c r="G35" s="3">
+        <v>29</v>
+      </c>
+      <c r="H35" s="3">
+        <v>31</v>
+      </c>
+      <c r="I35" s="3">
+        <v>13</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>82.66</v>
+      </c>
+      <c r="O35" s="3">
+        <v>100.2</v>
+      </c>
+      <c r="P35" s="3">
+        <v>44.1</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>579.4</v>
+      </c>
+      <c r="R35" s="3">
+        <v>6.72</v>
+      </c>
+      <c r="S35" s="3">
+        <v>119.72</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2">
+        <v>54.55</v>
+      </c>
+      <c r="C36" s="2">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="D36" s="2">
+        <v>185.23</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1032.6199999999999</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1217.8499999999999</v>
+      </c>
+      <c r="G36" s="2">
+        <v>13</v>
+      </c>
+      <c r="H36" s="2">
+        <v>14</v>
+      </c>
+      <c r="I36" s="2">
+        <v>11</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>79.430000000000007</v>
+      </c>
+      <c r="O36" s="2">
+        <v>58.73</v>
+      </c>
+      <c r="P36" s="2">
+        <v>26.36</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>41.95</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="S36" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="3">
+        <v>60</v>
+      </c>
+      <c r="C37" s="3">
+        <v>280.37</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2646.16</v>
+      </c>
+      <c r="E37" s="3">
+        <v>943.8</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3589.96</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3">
+        <v>5</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>188.76</v>
+      </c>
+      <c r="O37" s="3">
+        <v>258.70999999999998</v>
+      </c>
+      <c r="P37" s="3">
+        <v>37.78</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>106.38</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="S37" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="T37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2">
+        <v>85.4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1877.7</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2198.63</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4076.33</v>
+      </c>
+      <c r="G38" s="2">
+        <v>10</v>
+      </c>
+      <c r="H38" s="2">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2">
+        <v>10</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>219.86</v>
+      </c>
+      <c r="O38" s="2">
+        <v>124.23</v>
+      </c>
+      <c r="P38" s="2">
+        <v>12.41</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>376.4</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S38" s="2">
+        <v>46.23</v>
+      </c>
+      <c r="T38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3">
+        <v>100</v>
+      </c>
+      <c r="C39" s="3">
+        <v>36</v>
+      </c>
+      <c r="D39" s="3">
+        <v>609.69000000000005</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1693.64</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2303.33</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3">
+        <v>10</v>
+      </c>
+      <c r="I39" s="3">
+        <v>5</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>169.36</v>
+      </c>
+      <c r="O39" s="3">
+        <v>41.15</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>98.97</v>
+      </c>
+      <c r="R39" s="3">
+        <v>1.42</v>
+      </c>
+      <c r="S39" s="3">
+        <v>35.51</v>
+      </c>
+      <c r="T39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="2">
+        <v>56.76</v>
+      </c>
+      <c r="C40" s="2">
+        <v>12.95</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1163.94</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8987</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10150.94</v>
+      </c>
+      <c r="G40" s="2">
+        <v>37</v>
+      </c>
+      <c r="H40" s="2">
+        <v>44</v>
+      </c>
+      <c r="I40" s="2">
+        <v>37</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>242.89</v>
+      </c>
+      <c r="O40" s="2">
+        <v>62</v>
+      </c>
+      <c r="P40" s="2">
+        <v>49.47</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>499.1</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="S40" s="2">
+        <v>67.86</v>
+      </c>
+      <c r="T40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3">
+        <v>60</v>
+      </c>
+      <c r="C41" s="3">
+        <v>76.61</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4435.84</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5790.13</v>
+      </c>
+      <c r="F41" s="3">
+        <v>10225.969999999999</v>
+      </c>
+      <c r="G41" s="3">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3">
+        <v>16</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>579.01</v>
+      </c>
+      <c r="O41" s="3">
+        <v>77.81</v>
+      </c>
+      <c r="P41" s="3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>4245.38</v>
+      </c>
+      <c r="R41" s="3">
+        <v>6.33</v>
+      </c>
+      <c r="S41" s="3">
+        <v>1895.72</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="C42" s="2">
+        <v>122.96</v>
+      </c>
+      <c r="D42" s="2">
+        <v>626.79</v>
+      </c>
+      <c r="E42" s="2">
+        <v>509.74</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1136.53</v>
+      </c>
+      <c r="G42" s="2">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2">
+        <v>13</v>
+      </c>
+      <c r="I42" s="2">
+        <v>9</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <v>46.34</v>
+      </c>
+      <c r="O42" s="2">
+        <v>146.12</v>
+      </c>
+      <c r="P42" s="2">
+        <v>13.21</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>14.33</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="S42" s="2">
+        <v>6.87</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3">
+        <v>80</v>
+      </c>
+      <c r="C43" s="3">
+        <v>67.17</v>
+      </c>
+      <c r="D43" s="3">
+        <v>468.35</v>
+      </c>
+      <c r="E43" s="3">
+        <v>697.27</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1165.6199999999999</v>
+      </c>
+      <c r="G43" s="3">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
+        <v>9</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>87.16</v>
+      </c>
+      <c r="O43" s="3">
+        <v>91.85</v>
+      </c>
+      <c r="P43" s="3">
+        <v>29.43</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>104.05</v>
+      </c>
+      <c r="R43" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="S43" s="3">
+        <v>32.24</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2">
+        <v>52.63</v>
+      </c>
+      <c r="C44" s="2">
+        <v>38.15</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3037.41</v>
+      </c>
+      <c r="E44" s="2">
+        <v>7960.85</v>
+      </c>
+      <c r="F44" s="2">
+        <v>10998.26</v>
+      </c>
+      <c r="G44" s="2">
+        <v>26</v>
+      </c>
+      <c r="H44" s="2">
+        <v>34</v>
+      </c>
+      <c r="I44" s="2">
+        <v>19</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>306.19</v>
+      </c>
+      <c r="O44" s="2">
+        <v>103.24</v>
+      </c>
+      <c r="P44" s="2">
+        <v>33.85</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>238.63</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S44" s="2">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="T44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="3">
+        <v>66.67</v>
+      </c>
+      <c r="C45" s="3">
+        <v>28.18</v>
+      </c>
+      <c r="D45" s="3">
+        <v>845.53</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3000.33</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3845.86</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3">
+        <v>10</v>
+      </c>
+      <c r="I45" s="3">
+        <v>9</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>300.02999999999997</v>
+      </c>
+      <c r="O45" s="3">
+        <v>48.64</v>
+      </c>
+      <c r="P45" s="3">
+        <v>9.01</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="S45" s="3">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="T45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2">
+        <v>63.83</v>
+      </c>
+      <c r="C46" s="2">
+        <v>11.53</v>
+      </c>
+      <c r="D46" s="2">
+        <v>740.4</v>
+      </c>
+      <c r="E46" s="2">
+        <v>6419.61</v>
+      </c>
+      <c r="F46" s="2">
+        <v>7160.01</v>
+      </c>
+      <c r="G46" s="2">
+        <v>51</v>
+      </c>
+      <c r="H46" s="2">
         <v>50</v>
       </c>
-      <c r="H16" s="2">
-        <v>57</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="I46" s="2">
+        <v>47</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>125.87</v>
+      </c>
+      <c r="O46" s="2">
+        <v>24.18</v>
+      </c>
+      <c r="P46" s="2">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>17.77</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="S46" s="2">
+        <v>5.41</v>
+      </c>
+      <c r="T46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="3">
+        <v>75</v>
+      </c>
+      <c r="C47" s="3">
+        <v>61.48</v>
+      </c>
+      <c r="D47" s="3">
+        <v>85.42</v>
+      </c>
+      <c r="E47" s="3">
+        <v>138.94</v>
+      </c>
+      <c r="F47" s="3">
+        <v>224.36</v>
+      </c>
+      <c r="G47" s="3">
+        <v>9</v>
+      </c>
+      <c r="H47" s="3">
+        <v>13</v>
+      </c>
+      <c r="I47" s="3">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>15.44</v>
+      </c>
+      <c r="O47" s="3">
+        <v>81.44</v>
+      </c>
+      <c r="P47" s="3">
+        <v>45.07</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>105.6</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="S47" s="3">
+        <v>21.48</v>
+      </c>
+      <c r="T47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2">
+        <v>60</v>
+      </c>
+      <c r="C48" s="2">
+        <v>58.55</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1837.02</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3137.73</v>
+      </c>
+      <c r="F48" s="2">
+        <v>4974.75</v>
+      </c>
+      <c r="G48" s="2">
+        <v>15</v>
+      </c>
+      <c r="H48" s="2">
+        <v>11</v>
+      </c>
+      <c r="I48" s="2">
+        <v>5</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>209.18</v>
+      </c>
+      <c r="O48" s="2">
+        <v>124.39</v>
+      </c>
+      <c r="P48" s="2">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>1365.52</v>
+      </c>
+      <c r="R48" s="2">
+        <v>21.78</v>
+      </c>
+      <c r="S48" s="2">
+        <v>437.2</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="C49" s="3">
+        <v>25.65</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1162.2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4530.6000000000004</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5692.8</v>
+      </c>
+      <c r="G49" s="3">
+        <v>14</v>
+      </c>
+      <c r="H49" s="3">
+        <v>14</v>
+      </c>
+      <c r="I49" s="3">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>323.61</v>
+      </c>
+      <c r="O49" s="3">
+        <v>53.92</v>
+      </c>
+      <c r="P49" s="3">
+        <v>9.48</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="S49" s="3">
+        <v>4.13</v>
+      </c>
+      <c r="T49" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10.93</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1193.1199999999999</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10920.34</v>
+      </c>
+      <c r="F50" s="2">
+        <v>12113.46</v>
+      </c>
+      <c r="G50" s="2">
+        <v>52</v>
+      </c>
+      <c r="H50" s="2">
+        <v>49</v>
+      </c>
+      <c r="I50" s="2">
+        <v>23</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>210.01</v>
+      </c>
+      <c r="O50" s="2">
+        <v>50.41</v>
+      </c>
+      <c r="P50" s="2">
+        <v>42.23</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>185.1</v>
+      </c>
+      <c r="R50" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="S50" s="2">
+        <v>23.75</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="3">
+        <v>55</v>
+      </c>
+      <c r="C51" s="3">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2634.7</v>
+      </c>
+      <c r="E51" s="3">
+        <v>8015.58</v>
+      </c>
+      <c r="F51" s="3">
+        <v>10650.29</v>
+      </c>
+      <c r="G51" s="3">
+        <v>21</v>
+      </c>
+      <c r="H51" s="3">
+        <v>31</v>
+      </c>
+      <c r="I51" s="3">
+        <v>20</v>
+      </c>
+      <c r="J51" s="3">
+        <v>1</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>381.69</v>
+      </c>
+      <c r="O51" s="3">
+        <v>99.15</v>
+      </c>
+      <c r="P51" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>447.22</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="S51" s="3">
+        <v>51.44</v>
+      </c>
+      <c r="T51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="2">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2">
+        <v>23.48</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4352.95</v>
+      </c>
+      <c r="E52" s="2">
+        <v>18542.87</v>
+      </c>
+      <c r="F52" s="2">
+        <v>22895.83</v>
+      </c>
+      <c r="G52" s="2">
+        <v>19</v>
+      </c>
+      <c r="H52" s="2">
+        <v>28</v>
+      </c>
+      <c r="I52" s="2">
+        <v>10</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <v>975.94</v>
+      </c>
+      <c r="O52" s="2">
+        <v>4907.6400000000003</v>
+      </c>
+      <c r="P52" s="2">
+        <v>55.88</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>1142.55</v>
+      </c>
+      <c r="R52" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="S52" s="2">
+        <v>119.8</v>
+      </c>
+      <c r="T52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="3">
+        <v>85.71</v>
+      </c>
+      <c r="C53" s="3">
+        <v>67.489999999999995</v>
+      </c>
+      <c r="D53" s="3">
+        <v>3386.94</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5018.71</v>
+      </c>
+      <c r="F53" s="3">
+        <v>8405.65</v>
+      </c>
+      <c r="G53" s="3">
+        <v>8</v>
+      </c>
+      <c r="H53" s="3">
+        <v>13</v>
+      </c>
+      <c r="I53" s="3">
+        <v>7</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>627.34</v>
+      </c>
+      <c r="O53" s="3">
+        <v>69.08</v>
+      </c>
+      <c r="P53" s="3">
+        <v>51.54</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>47.98</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="S53" s="3">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="T53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1638.51</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2630.78</v>
+      </c>
+      <c r="E54" s="2">
+        <v>160.56</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2791.34</v>
+      </c>
+      <c r="G54" s="2">
+        <v>9</v>
+      </c>
+      <c r="H54" s="2">
+        <v>14</v>
+      </c>
+      <c r="I54" s="2">
+        <v>6</v>
+      </c>
+      <c r="J54" s="2">
+        <v>2</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
+        <v>17.84</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1268.52</v>
+      </c>
+      <c r="P54" s="2">
+        <v>32.19</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>227.13</v>
+      </c>
+      <c r="R54" s="2">
+        <v>20.13</v>
+      </c>
+      <c r="S54" s="2">
+        <v>119.69</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="3">
+        <v>85.71</v>
+      </c>
+      <c r="C55" s="3">
+        <v>16.02</v>
+      </c>
+      <c r="D55" s="3">
+        <v>351.06</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2191.59</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2542.65</v>
+      </c>
+      <c r="G55" s="3">
+        <v>7</v>
+      </c>
+      <c r="H55" s="3">
+        <v>7</v>
+      </c>
+      <c r="I55" s="3">
+        <v>7</v>
+      </c>
+      <c r="J55" s="3">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>313.08</v>
+      </c>
+      <c r="O55" s="3">
+        <v>27.01</v>
+      </c>
+      <c r="P55" s="3">
+        <v>43.04</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>89.27</v>
+      </c>
+      <c r="R55" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="S55" s="3">
+        <v>22.34</v>
+      </c>
+      <c r="T55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="C56" s="2">
+        <v>12.04</v>
+      </c>
+      <c r="D56" s="2">
+        <v>24.48</v>
+      </c>
+      <c r="E56" s="2">
+        <v>203.43</v>
+      </c>
+      <c r="F56" s="2">
+        <v>227.91</v>
+      </c>
+      <c r="G56" s="2">
+        <v>12</v>
+      </c>
+      <c r="H56" s="2">
+        <v>8</v>
+      </c>
+      <c r="I56" s="2">
+        <v>7</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>16.95</v>
+      </c>
+      <c r="O56" s="2">
+        <v>77.95</v>
+      </c>
+      <c r="P56" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>578.17999999999995</v>
+      </c>
+      <c r="R56" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="S56" s="2">
+        <v>101.03</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="3">
+        <v>66.67</v>
+      </c>
+      <c r="C57" s="3">
+        <v>128.66999999999999</v>
+      </c>
+      <c r="D57" s="3">
+        <v>27622.58</v>
+      </c>
+      <c r="E57" s="3">
+        <v>21467.94</v>
+      </c>
+      <c r="F57" s="3">
+        <v>49090.52</v>
+      </c>
+      <c r="G57" s="3">
+        <v>42</v>
+      </c>
+      <c r="H57" s="3">
+        <v>22</v>
+      </c>
+      <c r="I57" s="3">
+        <v>9</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>511.14</v>
+      </c>
+      <c r="O57" s="3">
+        <v>5654.65</v>
+      </c>
+      <c r="P57" s="3">
+        <v>29.25</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>54.47</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="S57" s="3">
+        <v>15.24</v>
+      </c>
+      <c r="T57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="2">
+        <v>77.78</v>
+      </c>
+      <c r="C58" s="2">
+        <v>47.63</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1507.25</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3164.8</v>
+      </c>
+      <c r="F58" s="2">
+        <v>4672.04</v>
+      </c>
+      <c r="G58" s="2">
+        <v>44</v>
+      </c>
+      <c r="H58" s="2">
         <v>35</v>
       </c>
-      <c r="J16" s="2">
+      <c r="I58" s="2">
+        <v>9</v>
+      </c>
+      <c r="J58" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <v>71.930000000000007</v>
+      </c>
+      <c r="O58" s="2">
+        <v>70546.600000000006</v>
+      </c>
+      <c r="P58" s="2">
+        <v>43.59</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>1794.15</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="S58" s="2">
+        <v>311.33</v>
+      </c>
+      <c r="T58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="3">
+        <v>100</v>
+      </c>
+      <c r="C59" s="3">
+        <v>186.39</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1648.42</v>
+      </c>
+      <c r="E59" s="3">
+        <v>884.4</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2532.8200000000002</v>
+      </c>
+      <c r="G59" s="3">
+        <v>9</v>
+      </c>
+      <c r="H59" s="3">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3">
+        <v>7</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>98.27</v>
+      </c>
+      <c r="O59" s="3">
+        <v>67525.73</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>949.2</v>
+      </c>
+      <c r="R59" s="3">
+        <v>3.83</v>
+      </c>
+      <c r="S59" s="3">
+        <v>165.7</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="2">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2">
+        <v>387.11</v>
+      </c>
+      <c r="D60" s="2">
+        <v>63274.45</v>
+      </c>
+      <c r="E60" s="2">
+        <v>16345.51</v>
+      </c>
+      <c r="F60" s="2">
+        <v>79619.960000000006</v>
+      </c>
+      <c r="G60" s="2">
+        <v>9</v>
+      </c>
+      <c r="H60" s="2">
+        <v>59</v>
+      </c>
+      <c r="I60" s="2">
+        <v>8</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <v>1816.17</v>
+      </c>
+      <c r="O60" s="2">
+        <v>371.07</v>
+      </c>
+      <c r="P60" s="2">
+        <v>22.15</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>1904.17</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="S60" s="2">
+        <v>241.19</v>
+      </c>
+      <c r="T60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="3">
+        <v>60</v>
+      </c>
+      <c r="C61" s="3">
+        <v>369.1</v>
+      </c>
+      <c r="D61" s="3">
+        <v>137888.85999999999</v>
+      </c>
+      <c r="E61" s="3">
+        <v>37358.639999999999</v>
+      </c>
+      <c r="F61" s="3">
+        <v>175247.5</v>
+      </c>
+      <c r="G61" s="3">
+        <v>15</v>
+      </c>
+      <c r="H61" s="3">
+        <v>26</v>
+      </c>
+      <c r="I61" s="3">
+        <v>5</v>
+      </c>
+      <c r="J61" s="3">
         <v>2</v>
       </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>51.45</v>
-      </c>
-      <c r="O16" s="2">
-        <v>60.76</v>
-      </c>
-      <c r="P16" s="2">
-        <v>50.13</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>88.35</v>
-      </c>
-      <c r="R16" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S16" s="2">
-        <v>15.27</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>2490.58</v>
+      </c>
+      <c r="O61" s="3">
+        <v>17968.05</v>
+      </c>
+      <c r="P61" s="3">
+        <v>47.53</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="S61" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="T61" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>